--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB35DF25-C79B-426D-9CA5-32C4ADBB8E37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9DBDC8-647F-450A-BD02-29837A8BABD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="11020" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Create form</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Add University's details</t>
   </si>
 </sst>
 </file>
@@ -187,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,62 +295,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -352,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,6 +414,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -430,26 +445,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,7 +464,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -767,36 +785,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.453125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -806,11 +826,14 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -820,11 +843,14 @@
       <c r="C4" s="11">
         <v>44442</v>
       </c>
-      <c r="D4" s="26">
-        <v>44442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="22">
+        <v>44442</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>27</v>
@@ -832,11 +858,14 @@
       <c r="C5" s="11">
         <v>44442</v>
       </c>
-      <c r="D5" s="26">
-        <v>44442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="22">
+        <v>44442</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -844,11 +873,14 @@
       <c r="C6" s="11">
         <v>44442</v>
       </c>
-      <c r="D6" s="26">
-        <v>44442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="22">
+        <v>44442</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -856,11 +888,14 @@
       <c r="C7" s="11">
         <v>44442</v>
       </c>
-      <c r="D7" s="26">
-        <v>44442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="22">
+        <v>44442</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -868,11 +903,14 @@
       <c r="C8" s="11">
         <v>44442</v>
       </c>
-      <c r="D8" s="26">
-        <v>44442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="22">
+        <v>44442</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -880,11 +918,14 @@
       <c r="C9" s="11">
         <v>44442</v>
       </c>
-      <c r="D9" s="26">
-        <v>44442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="22">
+        <v>44442</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
@@ -894,169 +935,205 @@
       <c r="C10" s="13">
         <v>44449</v>
       </c>
-      <c r="D10" s="27">
-        <v>44442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="23">
+        <v>44442</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C11" s="13">
         <v>44449</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="23">
+        <v>44445</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="13">
         <v>44449</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="24"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13">
         <v>44449</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="24"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="13">
         <v>44449</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="24"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13">
         <v>44449</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="24"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="13">
-        <v>44456</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44449</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="13">
         <v>44456</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="24"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="13">
         <v>44456</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="24"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="13">
         <v>44456</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="24"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13">
         <v>44456</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44456</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C21" s="14">
-        <v>44463</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C22" s="14">
         <v>44463</v>
       </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="25"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
       <c r="B23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="14">
         <v>44463</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="25"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="14">
         <v>44463</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="19"/>
-      <c r="B25" s="9" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="14">
+        <v>44463</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="19"/>
+      <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C26" s="15">
         <v>44463</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A1:E2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D3:E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9DBDC8-647F-450A-BD02-29837A8BABD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6569D1B-A193-44D2-B395-89D9CBEA76FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="11020" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>Add University's details</t>
+  </si>
+  <si>
+    <t>Create EER Diagram</t>
+  </si>
+  <si>
+    <t>On-Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">early </t>
+  </si>
+  <si>
+    <t>On Time</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -344,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,6 +416,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -414,49 +444,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,26 +815,30 @@
     <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.453125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -826,15 +848,18 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -843,90 +868,108 @@
       <c r="C4" s="11">
         <v>44442</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="32">
         <v>44442</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="F4" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="11">
         <v>44442</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="32">
         <v>44442</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="F5" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11">
         <v>44442</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="32">
         <v>44442</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="F6" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <v>44442</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="32">
         <v>44442</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="F7" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11">
         <v>44442</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="32">
         <v>44442</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="F8" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="11">
         <v>44442</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="32">
         <v>44442</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="F9" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -935,201 +978,278 @@
       <c r="C10" s="13">
         <v>44449</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="33">
         <v>44442</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="13">
         <v>44449</v>
       </c>
-      <c r="D11" s="23">
-        <v>44445</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="33">
+        <v>44443</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="F11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44448</v>
+      </c>
+      <c r="D12" s="33">
+        <v>44444</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C12" s="13">
-        <v>44449</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C13" s="13">
         <v>44449</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="D13" s="33">
+        <v>44445</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="13">
         <v>44449</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+      <c r="D14" s="33">
+        <v>44446</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="13">
         <v>44449</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="D15" s="33">
+        <v>44447</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="13">
         <v>44449</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="D16" s="33">
+        <v>44448</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44449</v>
+      </c>
+      <c r="D17" s="33">
+        <v>44449</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C17" s="13">
-        <v>44456</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C18" s="13">
         <v>44456</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="D18" s="33">
+        <v>44450</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="13">
         <v>44456</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
+      <c r="D19" s="33">
+        <v>44451</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="13">
         <v>44456</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="D20" s="33">
+        <v>44452</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="13">
         <v>44456</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="D21" s="33">
+        <v>44453</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44456</v>
+      </c>
+      <c r="D22" s="33">
+        <v>44454</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C22" s="14">
-        <v>44463</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C23" s="14">
         <v>44463</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
+      <c r="D23" s="33">
+        <v>44455</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
       <c r="B24" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="14">
         <v>44463</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
+      <c r="D24" s="33">
+        <v>44456</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
       <c r="B25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="14">
         <v>44463</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="19"/>
-      <c r="B26" s="9" t="s">
+      <c r="D25" s="33">
+        <v>44457</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14">
+        <v>44463</v>
+      </c>
+      <c r="D26" s="33">
+        <v>44458</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="24"/>
+      <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C27" s="15">
         <v>44463</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="10"/>
+      <c r="D27" s="33">
+        <v>44459</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:E3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6569D1B-A193-44D2-B395-89D9CBEA76FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32126010-7F8A-4D42-94DD-422F7DCC9362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="11020" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -141,13 +141,16 @@
     <t>On-Schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">early </t>
-  </si>
-  <si>
     <t>On Time</t>
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early </t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +171,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,13 +431,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -467,15 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,22 +824,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -859,7 +862,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -868,108 +871,108 @@
       <c r="C4" s="11">
         <v>44442</v>
       </c>
-      <c r="D4" s="32">
-        <v>44442</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="20">
+        <v>44442</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>35</v>
+      <c r="F4" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="11">
         <v>44442</v>
       </c>
-      <c r="D5" s="32">
-        <v>44442</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="20">
+        <v>44442</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>35</v>
+      <c r="F5" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11">
         <v>44442</v>
       </c>
-      <c r="D6" s="32">
-        <v>44442</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="D6" s="20">
+        <v>44442</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>35</v>
+      <c r="F6" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <v>44442</v>
       </c>
-      <c r="D7" s="32">
-        <v>44442</v>
-      </c>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="20">
+        <v>44442</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>35</v>
+      <c r="F7" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11">
         <v>44442</v>
       </c>
-      <c r="D8" s="32">
-        <v>44442</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="20">
+        <v>44442</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>35</v>
+      <c r="F8" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="11">
         <v>44442</v>
       </c>
-      <c r="D9" s="32">
-        <v>44442</v>
-      </c>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="20">
+        <v>44442</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>35</v>
+      <c r="F9" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -978,202 +981,202 @@
       <c r="C10" s="13">
         <v>44449</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="21">
         <v>44442</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="13">
         <v>44449</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="21">
         <v>44443</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="13">
         <v>44448</v>
       </c>
-      <c r="D12" s="33">
-        <v>44444</v>
+      <c r="D12" s="21">
+        <v>44446</v>
       </c>
       <c r="E12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="13">
         <v>44449</v>
       </c>
-      <c r="D13" s="33">
-        <v>44445</v>
-      </c>
-      <c r="E13" s="17"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="13">
         <v>44449</v>
       </c>
-      <c r="D14" s="33">
-        <v>44446</v>
-      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="13">
         <v>44449</v>
       </c>
-      <c r="D15" s="33">
-        <v>44447</v>
-      </c>
-      <c r="E15" s="17"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="13">
         <v>44449</v>
       </c>
-      <c r="D16" s="33">
-        <v>44448</v>
+      <c r="D16" s="21">
+        <v>44442</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="13">
         <v>44449</v>
       </c>
-      <c r="D17" s="33">
-        <v>44449</v>
+      <c r="D17" s="21">
+        <v>44442</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="13">
         <v>44456</v>
       </c>
-      <c r="D18" s="33">
-        <v>44450</v>
-      </c>
-      <c r="E18" s="17"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="13">
         <v>44456</v>
       </c>
-      <c r="D19" s="33">
-        <v>44451</v>
-      </c>
-      <c r="E19" s="17"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="13">
         <v>44456</v>
       </c>
-      <c r="D20" s="33">
-        <v>44452</v>
-      </c>
-      <c r="E20" s="17"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="13">
         <v>44456</v>
       </c>
-      <c r="D21" s="33">
-        <v>44453</v>
-      </c>
-      <c r="E21" s="17"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="13">
         <v>44456</v>
       </c>
-      <c r="D22" s="33">
-        <v>44454</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1182,66 +1185,66 @@
       <c r="C23" s="14">
         <v>44463</v>
       </c>
-      <c r="D23" s="33">
-        <v>44455</v>
-      </c>
-      <c r="E23" s="18"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="14">
         <v>44463</v>
       </c>
-      <c r="D24" s="33">
-        <v>44456</v>
-      </c>
-      <c r="E24" s="18"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="14">
         <v>44463</v>
       </c>
-      <c r="D25" s="33">
-        <v>44457</v>
-      </c>
-      <c r="E25" s="18"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="14">
         <v>44463</v>
       </c>
-      <c r="D26" s="33">
-        <v>44458</v>
-      </c>
-      <c r="E26" s="18"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="24"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="15">
         <v>44463</v>
       </c>
-      <c r="D27" s="33">
-        <v>44459</v>
-      </c>
-      <c r="E27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F27" s="10"/>
     </row>
   </sheetData>
@@ -1251,6 +1254,7 @@
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:F2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:E3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32126010-7F8A-4D42-94DD-422F7DCC9362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BB639-9238-451A-BBF7-5A4CECAD51F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="11020" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,6 +479,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1185,8 +1191,8 @@
       <c r="C23" s="14">
         <v>44463</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="8"/>
@@ -1199,8 +1205,8 @@
       <c r="C24" s="14">
         <v>44463</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="8"/>
@@ -1213,8 +1219,8 @@
       <c r="C25" s="14">
         <v>44463</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="8"/>
@@ -1227,8 +1233,8 @@
       <c r="C26" s="14">
         <v>44463</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="8"/>
@@ -1241,8 +1247,8 @@
       <c r="C27" s="15">
         <v>44463</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="10"/>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BB639-9238-451A-BBF7-5A4CECAD51F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E92157-3239-4791-B21C-E82EC84A7816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="11020" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -443,6 +449,12 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -479,12 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -812,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,22 +836,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -868,7 +874,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -888,7 +894,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -906,7 +912,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -924,7 +930,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -942,7 +948,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -960,7 +966,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -978,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -998,7 +1004,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1016,7 +1022,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1034,7 +1040,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1054,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1068,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1082,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1100,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1118,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1126,7 +1132,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1146,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1154,7 +1160,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1168,7 +1174,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1188,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1191,67 +1197,81 @@
       <c r="C23" s="14">
         <v>44463</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="14">
         <v>44463</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="14">
         <v>44463</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="14">
         <v>44463</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="15">
-        <v>44463</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33" t="s">
+        <v>44554</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="15">
+        <v>44464</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E92157-3239-4791-B21C-E82EC84A7816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BB639-9238-451A-BBF7-5A4CECAD51F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="11020" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>UX</t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -449,48 +443,48 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,22 +830,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -874,7 +868,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -894,7 +888,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -912,7 +906,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -930,7 +924,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -948,7 +942,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -966,7 +960,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -984,7 +978,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1004,7 +998,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1022,7 +1016,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1040,7 +1034,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1048,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1068,7 +1062,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1082,7 +1076,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1100,7 +1094,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1112,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +1126,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1140,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1154,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1168,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1188,7 +1182,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1197,81 +1191,67 @@
       <c r="C23" s="14">
         <v>44463</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="14">
         <v>44463</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="14">
         <v>44463</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="14">
         <v>44463</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="15">
-        <v>44554</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23" t="s">
+        <v>44463</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="15">
-        <v>44464</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BB639-9238-451A-BBF7-5A4CECAD51F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04795BB-6017-4CE8-B343-773FB8A5281B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="11020" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18440" windowHeight="11020" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,6 +443,12 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -479,12 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,22 +830,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -868,7 +868,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -888,7 +888,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -960,7 +960,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -978,7 +978,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1112,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1191,64 +1191,64 @@
       <c r="C23" s="14">
         <v>44463</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="14">
         <v>44463</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="14">
         <v>44463</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="14">
         <v>44463</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="15">
         <v>44463</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="10"/>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04795BB-6017-4CE8-B343-773FB8A5281B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715362AE-63C9-47A1-A3F8-7A1932DEF151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18440" windowHeight="11020" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="6"/>
     </row>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715362AE-63C9-47A1-A3F8-7A1932DEF151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135ACB8-5206-4AF9-8542-7741EBB28100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="6"/>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -1161,9 +1161,11 @@
       <c r="C21" s="13">
         <v>44456</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="21">
+        <v>44449</v>
+      </c>
       <c r="E21" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F21" s="6"/>
     </row>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135ACB8-5206-4AF9-8542-7741EBB28100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B81260F-817C-4B25-A862-237C4DAF1E6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Finishes</t>
+  </si>
+  <si>
+    <t>OnTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delayed </t>
   </si>
 </sst>
 </file>
@@ -814,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1041,11 +1050,15 @@
       <c r="C13" s="13">
         <v>44449</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="21">
+        <v>44456</v>
+      </c>
       <c r="E13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
@@ -1055,11 +1068,15 @@
       <c r="C14" s="13">
         <v>44449</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="21">
+        <v>44456</v>
+      </c>
       <c r="E14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
@@ -1069,11 +1086,15 @@
       <c r="C15" s="13">
         <v>44449</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="21">
+        <v>44456</v>
+      </c>
       <c r="E15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
@@ -1147,11 +1168,15 @@
       <c r="C20" s="13">
         <v>44456</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="21">
+        <v>44456</v>
+      </c>
       <c r="E20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
@@ -1167,7 +1192,9 @@
       <c r="E21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B81260F-817C-4B25-A862-237C4DAF1E6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE07CCE5-F823-47C9-8405-1CA137A9B19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">Early </t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Finishes</t>
@@ -824,7 +821,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E23" sqref="E23:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,7 +1054,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1075,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1093,7 +1090,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1172,10 +1169,10 @@
         <v>44456</v>
       </c>
       <c r="E20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1206,7 +1203,7 @@
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -1222,7 +1219,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -1236,7 +1233,7 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -1250,7 +1247,7 @@
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -1264,7 +1261,7 @@
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -1278,7 +1275,7 @@
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F27" s="10"/>
     </row>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE07CCE5-F823-47C9-8405-1CA137A9B19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFF448C-9436-43F3-9F6B-063C6A0F7CE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">Delayed </t>
+  </si>
+  <si>
+    <t>refactoring</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1069,7 +1072,7 @@
         <v>44456</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>40</v>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFF448C-9436-43F3-9F6B-063C6A0F7CE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF8B57-5881-4D20-9011-CDCB6412FC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">Delayed </t>
-  </si>
-  <si>
-    <t>refactoring</t>
   </si>
 </sst>
 </file>
@@ -823,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1072,7 +1069,7 @@
         <v>44456</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>40</v>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF8B57-5881-4D20-9011-CDCB6412FC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A85B43F-B39F-4A60-83E4-EE69C1A2FD29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1201,11 +1201,15 @@
       <c r="C22" s="13">
         <v>44456</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="21">
+        <v>44456</v>
+      </c>
       <c r="E22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A85B43F-B39F-4A60-83E4-EE69C1A2FD29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FC1AA3-8CB0-44C7-A75A-54720E845D8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t xml:space="preserve">Delayed </t>
+  </si>
+  <si>
+    <t>pushed</t>
+  </si>
+  <si>
+    <t>Final Refactoring</t>
+  </si>
+  <si>
+    <t>revisit layouts</t>
+  </si>
+  <si>
+    <t>revisit functions</t>
+  </si>
+  <si>
+    <t>error and exception handing</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -226,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,248 +270,78 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,459 +687,516 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="11">
-        <v>44442</v>
-      </c>
-      <c r="D4" s="20">
-        <v>44442</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="C4" s="6">
+        <v>44442</v>
+      </c>
+      <c r="D4" s="12">
+        <v>44442</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11">
-        <v>44442</v>
-      </c>
-      <c r="D5" s="20">
-        <v>44442</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="C5" s="6">
+        <v>44442</v>
+      </c>
+      <c r="D5" s="12">
+        <v>44442</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
-        <v>44442</v>
-      </c>
-      <c r="D6" s="20">
-        <v>44442</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="C6" s="6">
+        <v>44442</v>
+      </c>
+      <c r="D6" s="12">
+        <v>44442</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
-        <v>44442</v>
-      </c>
-      <c r="D7" s="20">
-        <v>44442</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="C7" s="6">
+        <v>44442</v>
+      </c>
+      <c r="D7" s="12">
+        <v>44442</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
-        <v>44442</v>
-      </c>
-      <c r="D8" s="20">
-        <v>44442</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="6">
+        <v>44442</v>
+      </c>
+      <c r="D8" s="12">
+        <v>44442</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
-        <v>44442</v>
-      </c>
-      <c r="D9" s="20">
-        <v>44442</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="C9" s="6">
+        <v>44442</v>
+      </c>
+      <c r="D9" s="12">
+        <v>44442</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>44449</v>
       </c>
-      <c r="D10" s="21">
-        <v>44442</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="13">
+        <v>44442</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="7">
         <v>44449</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="13">
         <v>44443</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="7">
         <v>44448</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="13">
         <v>44446</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="7">
         <v>44449</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="13">
         <v>44456</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="7">
         <v>44449</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="13">
         <v>44456</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="7">
         <v>44449</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="13">
         <v>44456</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="7">
         <v>44449</v>
       </c>
-      <c r="D16" s="21">
-        <v>44442</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="13">
+        <v>44442</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="7">
         <v>44449</v>
       </c>
-      <c r="D17" s="21">
-        <v>44442</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="13">
+        <v>44442</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="7">
         <v>44456</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7">
+        <v>44456</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7">
+        <v>44456</v>
+      </c>
+      <c r="D20" s="13">
+        <v>44456</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
+        <v>44456</v>
+      </c>
+      <c r="D21" s="13">
+        <v>44449</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7">
+        <v>44456</v>
+      </c>
+      <c r="D22" s="13">
+        <v>44459</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="13">
-        <v>44456</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="17" t="s">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8">
+        <v>44463</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="13">
-        <v>44456</v>
-      </c>
-      <c r="D20" s="21">
-        <v>44456</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="13">
-        <v>44456</v>
-      </c>
-      <c r="D21" s="21">
-        <v>44449</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="13">
-        <v>44456</v>
-      </c>
-      <c r="D22" s="21">
-        <v>44456</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44463</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8">
         <v>44463</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8">
         <v>44463</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="19"/>
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8">
         <v>44463</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
-      <c r="B26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="14">
-        <v>44463</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="15">
-        <v>44463</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="13">
+        <v>44469</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="13">
+        <v>44469</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="13">
+        <v>44469</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="13">
+        <v>44469</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A28:A31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:E3">

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FC1AA3-8CB0-44C7-A75A-54720E845D8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C50F3E6-8A21-4318-86B1-6301A088220F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -171,13 +171,13 @@
     <t>revisit functions</t>
   </si>
   <si>
-    <t>error and exception handing</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>error and exception handling</t>
   </si>
 </sst>
 </file>
@@ -329,19 +329,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,14 +671,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.1796875" style="1" customWidth="1"/>
@@ -687,22 +687,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -725,7 +725,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -745,7 +745,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -763,7 +763,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -781,7 +781,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -835,7 +835,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -855,7 +855,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -909,7 +909,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -927,7 +927,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
@@ -963,7 +963,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -981,7 +981,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1077,7 +1077,7 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1158,35 +1158,35 @@
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="17"/>
+      <c r="B30" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="C30" s="13">
         <v>44469</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="13">
         <v>44469</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="10"/>
     </row>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C50F3E6-8A21-4318-86B1-6301A088220F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B143C291-F277-4E79-A2F4-5032C68A7725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -275,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +327,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -671,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,22 +690,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -725,7 +728,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -745,7 +748,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -763,7 +766,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -781,7 +784,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -799,7 +802,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -817,7 +820,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -835,7 +838,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -855,7 +858,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -873,7 +876,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
@@ -891,7 +894,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -909,7 +912,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -927,7 +930,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -945,7 +948,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
@@ -963,7 +966,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -981,7 +984,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
@@ -995,7 +998,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +1012,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1027,7 +1030,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1048,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1058,10 +1061,12 @@
       <c r="E22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1074,10 +1079,12 @@
       <c r="E23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1088,10 +1095,12 @@
       <c r="E24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1102,10 +1111,12 @@
       <c r="E25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1116,10 +1127,12 @@
       <c r="E26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
@@ -1130,10 +1143,12 @@
       <c r="E27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1149,7 +1164,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1163,7 +1178,7 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="10" t="s">
         <v>47</v>
       </c>
@@ -1177,7 +1192,7 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="10" t="s">
         <v>45</v>
       </c>

--- a/PIP-Backlog.xlsx
+++ b/PIP-Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PIP-University-Administration-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B143C291-F277-4E79-A2F4-5032C68A7725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05133259-5160-4064-BD10-729A5D30CFBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18220" windowHeight="10800" xr2:uid="{59053253-4EAC-46A3-8F35-147C6248C68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>PIP Sprint</t>
   </si>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>revisit functions</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>error and exception handling</t>
@@ -247,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -270,12 +264,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +376,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF25C4-0706-4711-8224-01EE9F63F796}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -995,7 +1035,9 @@
       <c r="E18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
@@ -1009,7 +1051,9 @@
       <c r="E19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="18"/>
@@ -1148,7 +1192,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1157,53 +1201,51 @@
       <c r="C28" s="13">
         <v>44469</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="13">
+        <v>44468</v>
+      </c>
       <c r="E28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="13">
         <v>44469</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="13">
+        <v>44468</v>
+      </c>
       <c r="E29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="13">
         <v>44469</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="13">
+        <v>44468</v>
+      </c>
       <c r="E30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="13">
-        <v>44469</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1211,7 +1253,7 @@
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D3:E3">
